--- a/gator.xlsx
+++ b/gator.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kimbrel1/Science/repos/gator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78591641-1815-504C-8F2B-38FFE0A383DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70FDCB28-FB95-9B48-BA67-692418D431B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1220" yWindow="460" windowWidth="49980" windowHeight="14180" activeTab="1" xr2:uid="{CED2E7C7-DFF3-F648-B190-1601735D45BC}"/>
+    <workbookView xWindow="1220" yWindow="460" windowWidth="25000" windowHeight="28340" activeTab="1" xr2:uid="{CED2E7C7-DFF3-F648-B190-1601735D45BC}"/>
   </bookViews>
   <sheets>
     <sheet name="db" sheetId="1" r:id="rId1"/>
     <sheet name="gene" sheetId="2" r:id="rId2"/>
+    <sheet name="complex" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="76">
   <si>
     <t>NOTE</t>
   </si>
@@ -241,13 +242,34 @@
   </si>
   <si>
     <t>narGHI</t>
+  </si>
+  <si>
+    <t>COMPLEX_NAME</t>
+  </si>
+  <si>
+    <t>narGH</t>
+  </si>
+  <si>
+    <t>DEFINITION</t>
+  </si>
+  <si>
+    <t>(coxS+coxM+coxL)</t>
+  </si>
+  <si>
+    <t>(narG+narH+narI)</t>
+  </si>
+  <si>
+    <t>(narG+narH)</t>
+  </si>
+  <si>
+    <t>narGHI, narGH</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -258,6 +280,12 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -306,13 +334,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -629,7 +658,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6D2F0C6-77F3-5B4E-B688-F0627CD33D07}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -684,305 +713,368 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11:E13"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="12.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="67.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="10.83203125" style="2"/>
+    <col min="1" max="1" width="12.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.33203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="41.83203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="10" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="67.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A7" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A8" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A9" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A10" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A11" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A13" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EECC133-A712-7349-87AA-903CA1833BF5}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19" style="1" customWidth="1"/>
+    <col min="3" max="3" width="61.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A6" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A7" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A8" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A9" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A10" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A11" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="1" t="s">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A12" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D12" s="1" t="s">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A13" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>66</v>
       </c>
     </row>
   </sheetData>
